--- a/Dmoney API Testing/Test Case_dmoney-trnx-api-Ahnaf_Ahmad.xlsx
+++ b/Dmoney API Testing/Test Case_dmoney-trnx-api-Ahnaf_Ahmad.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SDET\Assigments\Api Automation - postman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SDET\SQA with Java\Assigments\Manual Testing\Manual-Testing\Dmoney API Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1506,7 +1506,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1653,6 +1653,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2136,8 +2139,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
@@ -2425,14 +2428,14 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="33.109375" customWidth="1"/>
@@ -2443,7 +2446,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>279</v>
       </c>
       <c r="B1" s="50"/>
@@ -2861,14 +2864,14 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
@@ -2879,7 +2882,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>263</v>
       </c>
       <c r="B1" s="50"/>
@@ -3105,8 +3108,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
@@ -3373,9 +3376,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -3611,8 +3613,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
@@ -4000,8 +4002,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
@@ -4264,8 +4266,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
@@ -4680,8 +4682,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="31.109375" customWidth="1"/>
@@ -4944,7 +4946,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
